--- a/GUI + Reviews/202509/DEZP.xlsx
+++ b/GUI + Reviews/202509/DEZP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202509\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B379CDD-1CA6-4E18-936D-94093EC31750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E959D04-6C35-44AB-91C9-F7E32948C73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{137835DF-1290-490F-B46D-D4E29423B777}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B878E33D-1C37-4DFB-84ED-45D93D1689FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2021,22 +2021,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B40FA98-B68B-4E00-99BE-DC444CE8348E}" name="Universe" displayName="Universe" ref="A1:M180" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:M180" xr:uid="{8B40FA98-B68B-4E00-99BE-DC444CE8348E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F6B8115-8007-4D4E-944D-CF39DCB9C82F}" name="Universe" displayName="Universe" ref="A1:M180" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:M180" xr:uid="{3F6B8115-8007-4D4E-944D-CF39DCB9C82F}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{56F01447-D481-470D-901B-7034DB791D5B}" name="Name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{EE9302B0-6A86-45A2-8DEB-2E65EF153ABE}" name="Ticker" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{2B9A5DF9-EA86-4E87-BC2E-524FBFFE550A}" name="ISIN" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E590A5F2-6BDC-4ABD-9B15-7D27DC6B3DD2}" name="MIC" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{9667313C-3EEF-4603-99CF-A32F6F8237A7}" name="Currency (Local)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{E1C7AE9E-EE6A-4576-8E3D-66A5CC50985A}" name="Price (EUR) " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{CAA74E27-7BAB-4752-A955-44F0DF8A7ABA}" name="NOSH" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{DBFFA5AC-92F9-45DA-B6AE-F90913AEE999}" name="20 days AVG turnover EUR" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{B6A103CE-7B0E-422B-A8D3-E0F32A4CB63C}" name="3M AVG Turnover EUR" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{A24F7F50-3473-4D39-B250-A1B352BAAE31}" name="3M AVG Turnover USD" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{E4E41796-2A6A-4D98-B349-24C67E7765E0}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{07B914D3-0546-4791-BBDA-7C2D57C6C690}" name="6M AVG Turnover EUR" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{B3DBA2FB-F4A0-49BF-9C62-0F60085F793F}" name="12M AVG Turnover EUR" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CDA1CB8B-06F0-4947-8164-10BCC0997921}" name="Name" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{47037949-7601-4759-83DB-3D0E9053351F}" name="Ticker" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FA196B2C-2426-4383-B0F4-830149499340}" name="ISIN" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{9890C3BA-39C4-4A6E-B90C-5CA98BBC8A62}" name="MIC" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{05CF2226-3DF7-4ADE-A93D-1A56891F204A}" name="Currency (Local)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4270D502-D595-41C6-9C30-B31FB35109AB}" name="Price (EUR) " dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{CDAD4B4E-687B-4959-8B9E-EE28F52C3C98}" name="NOSH" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{AFC99C33-23FE-41CB-A045-262D0C422F81}" name="20 days AVG turnover EUR" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{A360FC91-24C3-41B3-BB90-831ACF1692A9}" name="3M AVG Turnover EUR" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{05541A57-D9E9-4F76-ADBC-A3D7D52376B3}" name="3M AVG Turnover USD" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{133FA9CA-FC15-4DF2-B978-C5B325C14CA0}" name="100 Trading Days AVG Turnover EUR" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{148D50E7-B715-4234-B72A-69D262234DE7}" name="6M AVG Turnover EUR" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{0687A418-939A-44A2-84F9-120625565761}" name="12M AVG Turnover EUR" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2358,7 +2358,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6686DB1C-B3E2-4C4B-B939-813E1BBE7DE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E456D76-7EFB-48E4-8942-F7B19F95BDA1}">
   <dimension ref="A1:M180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
